--- a/output/ejecucion_2/results/base_17_19/base_17_19_rf_s.xlsx
+++ b/output/ejecucion_2/results/base_17_19/base_17_19_rf_s.xlsx
@@ -70,15 +70,15 @@
     <t>p4022_t</t>
   </si>
   <si>
+    <t>p316a5_t</t>
+  </si>
+  <si>
+    <t>p414_02_t</t>
+  </si>
+  <si>
     <t>p4025_t</t>
   </si>
   <si>
-    <t>p316a5_t</t>
-  </si>
-  <si>
-    <t>p414_02_t</t>
-  </si>
-  <si>
     <t>p558a2_t</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>p110a_modificada_t</t>
   </si>
   <si>
+    <t>p110a_t</t>
+  </si>
+  <si>
     <t>ocu500_t_4.0</t>
   </si>
   <si>
-    <t>p110a_t</t>
-  </si>
-  <si>
     <t>p558c_t_1.0</t>
   </si>
   <si>
@@ -148,15 +148,15 @@
     <t>p1171_04_t</t>
   </si>
   <si>
+    <t>t110_t</t>
+  </si>
+  <si>
     <t>p1144_t</t>
   </si>
   <si>
     <t>p110_t</t>
   </si>
   <si>
-    <t>t110_t</t>
-  </si>
-  <si>
     <t>p104b2_t</t>
   </si>
   <si>
@@ -169,7 +169,7 @@
     <t>p1175_15_t</t>
   </si>
   <si>
-    <t>p316a1_t</t>
+    <t>p401f_t</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1421203323762402</v>
+        <v>0.1428551482124005</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06444548030787217</v>
+        <v>0.06448827671783883</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.05451863118098826</v>
+        <v>0.05405187950396155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.04796884397595032</v>
+        <v>0.04762087433420832</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03814864919809088</v>
+        <v>0.03844352211285158</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.02993159101207341</v>
+        <v>0.02989747216826921</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.02727317958247404</v>
+        <v>0.02736072348295981</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.0270569602253524</v>
+        <v>0.02722075933270349</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.02265077164764875</v>
+        <v>0.02267352391849232</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.02190568191866558</v>
+        <v>0.02162720794886103</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.02128493892132122</v>
+        <v>0.02117204982299868</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02104900104906395</v>
+        <v>0.02115987283861299</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.0207121362054167</v>
+        <v>0.0208432033454437</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.0201647316038896</v>
+        <v>0.02011833646250022</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.0193191306254392</v>
+        <v>0.01938111214904733</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01832842399263605</v>
+        <v>0.01876890451763915</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01559030527622948</v>
+        <v>0.01623542825535256</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01557685156166583</v>
+        <v>0.01547941851936117</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01548603254308177</v>
+        <v>0.01516550075227448</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01534079815720732</v>
+        <v>0.01494907467025084</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01387039641741181</v>
+        <v>0.01397999971066282</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01334360297658969</v>
+        <v>0.01317096735715619</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.01289189462845857</v>
+        <v>0.01293852078276822</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01287651337633965</v>
+        <v>0.01276989496626866</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.0116190642635634</v>
+        <v>0.01171740368360274</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.01097569267893184</v>
+        <v>0.01068330766497994</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.00910761695498386</v>
+        <v>0.009060247984431443</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.008745345491169334</v>
+        <v>0.008732382193552012</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.008728564195178779</v>
+        <v>0.008617252486353396</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.007690385484351679</v>
+        <v>0.007661401230562546</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.007467415315650772</v>
+        <v>0.007494300455457128</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.007287203683262761</v>
+        <v>0.007397529686946657</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.006722565946526673</v>
+        <v>0.006828125086878608</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.006702617661048451</v>
+        <v>0.006656553996227451</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.006589262206337618</v>
+        <v>0.006640913443096519</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.006233436539541279</v>
+        <v>0.006352635780425198</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.006096837426220435</v>
+        <v>0.006097241178607656</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.005880876366301586</v>
+        <v>0.005929306410953244</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.005749783090926994</v>
+        <v>0.00575624951755442</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.005601814941969156</v>
+        <v>0.005614205359502435</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.005582428251596416</v>
+        <v>0.00554169814290642</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.00542250215172142</v>
+        <v>0.005370648253356499</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.005012986295879083</v>
+        <v>0.00475635124201062</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.004647215566018804</v>
+        <v>0.004660435922497493</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.004612322556323956</v>
+        <v>0.004551965648857555</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.004364708238078683</v>
+        <v>0.004256176668024751</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.004186134333215145</v>
+        <v>0.004153797717930966</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.003993944393742081</v>
+        <v>0.003951394566117414</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.003965349612841058</v>
+        <v>0.003911826857698413</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.003895844648058783</v>
+        <v>0.003854705091638365</v>
       </c>
     </row>
   </sheetData>

--- a/output/ejecucion_2/results/base_17_19/base_17_19_rf_s.xlsx
+++ b/output/ejecucion_2/results/base_17_19/base_17_19_rf_s.xlsx
@@ -70,15 +70,15 @@
     <t>p4022_t</t>
   </si>
   <si>
+    <t>p4025_t</t>
+  </si>
+  <si>
     <t>p316a5_t</t>
   </si>
   <si>
     <t>p414_02_t</t>
   </si>
   <si>
-    <t>p4025_t</t>
-  </si>
-  <si>
     <t>p558a2_t</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>p110a_modificada_t</t>
   </si>
   <si>
+    <t>ocu500_t_4.0</t>
+  </si>
+  <si>
     <t>p110a_t</t>
   </si>
   <si>
-    <t>ocu500_t_4.0</t>
-  </si>
-  <si>
     <t>p558c_t_1.0</t>
   </si>
   <si>
@@ -148,15 +148,15 @@
     <t>p1171_04_t</t>
   </si>
   <si>
+    <t>p1144_t</t>
+  </si>
+  <si>
+    <t>p110_t</t>
+  </si>
+  <si>
     <t>t110_t</t>
   </si>
   <si>
-    <t>p1144_t</t>
-  </si>
-  <si>
-    <t>p110_t</t>
-  </si>
-  <si>
     <t>p104b2_t</t>
   </si>
   <si>
@@ -169,7 +169,7 @@
     <t>p1175_15_t</t>
   </si>
   <si>
-    <t>p401f_t</t>
+    <t>p316a1_t</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1428551482124005</v>
+        <v>0.1421203323762402</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06448827671783883</v>
+        <v>0.06444548030787217</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.05405187950396155</v>
+        <v>0.05451863118098826</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.04762087433420832</v>
+        <v>0.04796884397595032</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03844352211285158</v>
+        <v>0.03814864919809088</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.02989747216826921</v>
+        <v>0.02993159101207341</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.02736072348295981</v>
+        <v>0.02727317958247404</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.02722075933270349</v>
+        <v>0.0270569602253524</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.02267352391849232</v>
+        <v>0.02265077164764875</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.02162720794886103</v>
+        <v>0.02190568191866558</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.02117204982299868</v>
+        <v>0.02128493892132122</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02115987283861299</v>
+        <v>0.02104900104906395</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.0208432033454437</v>
+        <v>0.0207121362054167</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02011833646250022</v>
+        <v>0.0201647316038896</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.01938111214904733</v>
+        <v>0.0193191306254392</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01876890451763915</v>
+        <v>0.01832842399263605</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01623542825535256</v>
+        <v>0.01559030527622948</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01547941851936117</v>
+        <v>0.01557685156166583</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01516550075227448</v>
+        <v>0.01548603254308177</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01494907467025084</v>
+        <v>0.01534079815720732</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01397999971066282</v>
+        <v>0.01387039641741181</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01317096735715619</v>
+        <v>0.01334360297658969</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.01293852078276822</v>
+        <v>0.01289189462845857</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01276989496626866</v>
+        <v>0.01287651337633965</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.01171740368360274</v>
+        <v>0.0116190642635634</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.01068330766497994</v>
+        <v>0.01097569267893184</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.009060247984431443</v>
+        <v>0.00910761695498386</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.008732382193552012</v>
+        <v>0.008745345491169334</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.008617252486353396</v>
+        <v>0.008728564195178779</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.007661401230562546</v>
+        <v>0.007690385484351679</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.007494300455457128</v>
+        <v>0.007467415315650772</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.007397529686946657</v>
+        <v>0.007287203683262761</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.006828125086878608</v>
+        <v>0.006722565946526673</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.006656553996227451</v>
+        <v>0.006702617661048451</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.006640913443096519</v>
+        <v>0.006589262206337618</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.006352635780425198</v>
+        <v>0.006233436539541279</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.006097241178607656</v>
+        <v>0.006096837426220435</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.005929306410953244</v>
+        <v>0.005880876366301586</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.00575624951755442</v>
+        <v>0.005749783090926994</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.005614205359502435</v>
+        <v>0.005601814941969156</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.00554169814290642</v>
+        <v>0.005582428251596416</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.005370648253356499</v>
+        <v>0.00542250215172142</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.00475635124201062</v>
+        <v>0.005012986295879083</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.004660435922497493</v>
+        <v>0.004647215566018804</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.004551965648857555</v>
+        <v>0.004612322556323956</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.004256176668024751</v>
+        <v>0.004364708238078683</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.004153797717930966</v>
+        <v>0.004186134333215145</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.003951394566117414</v>
+        <v>0.003993944393742081</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.003911826857698413</v>
+        <v>0.003965349612841058</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.003854705091638365</v>
+        <v>0.003895844648058783</v>
       </c>
     </row>
   </sheetData>
